--- a/Balance.xlsx
+++ b/Balance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SecretHistoriesBoardGame\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SecretHistoriesBoardGame\secret-histories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEBA378-A2A4-431B-BC4C-D73FE320BEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA1862C-82BF-44E1-83A3-D1E250773913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lantern victory" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="80">
   <si>
     <t>Lore</t>
   </si>
@@ -63,39 +63,18 @@
     <t>Influence</t>
   </si>
   <si>
-    <t>Contentment</t>
-  </si>
-  <si>
-    <t>Restlessness</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>Ascension</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>1+2+3 Funds</t>
-  </si>
-  <si>
-    <t>2/4/4 Lore</t>
-  </si>
-  <si>
-    <t>3 Health</t>
-  </si>
-  <si>
     <t>Subversion Moth</t>
   </si>
   <si>
     <t>Subversion Winter</t>
   </si>
   <si>
-    <t>Fascination</t>
-  </si>
-  <si>
     <t>Subversion Edge</t>
   </si>
   <si>
@@ -114,9 +93,6 @@
     <t>StagDoor</t>
   </si>
   <si>
-    <t>Fleeting Reminiscence</t>
-  </si>
-  <si>
     <t>Season of Ambition*</t>
   </si>
   <si>
@@ -126,9 +102,6 @@
     <t>Seasonal</t>
   </si>
   <si>
-    <t>WinterA</t>
-  </si>
-  <si>
     <t>Relevant to aspect</t>
   </si>
   <si>
@@ -147,9 +120,6 @@
     <t>Moth6</t>
   </si>
   <si>
-    <t>LanternA</t>
-  </si>
-  <si>
     <t>Affliction</t>
   </si>
   <si>
@@ -180,21 +150,9 @@
     <t>Way dream</t>
   </si>
   <si>
-    <t>PaintC</t>
-  </si>
-  <si>
-    <t>PaintD</t>
-  </si>
-  <si>
     <t>Grail4</t>
   </si>
   <si>
-    <t>GrailA</t>
-  </si>
-  <si>
-    <t>ForgeA</t>
-  </si>
-  <si>
     <t>Forge</t>
   </si>
   <si>
@@ -204,10 +162,112 @@
     <t>PassionC</t>
   </si>
   <si>
-    <t>ReasonB</t>
-  </si>
-  <si>
     <t>ReasonC</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Passion</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Dedication failure*</t>
+  </si>
+  <si>
+    <t>Mystique</t>
+  </si>
+  <si>
+    <t>Cult</t>
+  </si>
+  <si>
+    <t>Cult Forge</t>
+  </si>
+  <si>
+    <t>Cult Knock</t>
+  </si>
+  <si>
+    <t>Cult Lantern</t>
+  </si>
+  <si>
+    <t>Commision Edge C</t>
+  </si>
+  <si>
+    <t>Commision</t>
+  </si>
+  <si>
+    <t>Commision Forge C</t>
+  </si>
+  <si>
+    <t>Commision Grail A</t>
+  </si>
+  <si>
+    <t>Commision Grail B</t>
+  </si>
+  <si>
+    <t>Commision Grail C</t>
+  </si>
+  <si>
+    <t>Commision Heart A</t>
+  </si>
+  <si>
+    <t>Commision Heart B</t>
+  </si>
+  <si>
+    <t>Commision Heart C</t>
+  </si>
+  <si>
+    <t>Commision Knock A</t>
+  </si>
+  <si>
+    <t>Commision Knock B</t>
+  </si>
+  <si>
+    <t>Commision Knock C</t>
+  </si>
+  <si>
+    <t>Commision Lantern A</t>
+  </si>
+  <si>
+    <t>Commision Lantern B</t>
+  </si>
+  <si>
+    <t>Commision Lantern C</t>
+  </si>
+  <si>
+    <t>Commision Moth A</t>
+  </si>
+  <si>
+    <t>Commision Moth B</t>
+  </si>
+  <si>
+    <t>Commision Moth C</t>
+  </si>
+  <si>
+    <t>Commision Winter A</t>
+  </si>
+  <si>
+    <t>Commision Winter B</t>
+  </si>
+  <si>
+    <t>Commision Winter C</t>
+  </si>
+  <si>
+    <t>Notoriety</t>
+  </si>
+  <si>
+    <t>Cult Winter</t>
+  </si>
+  <si>
+    <t>PassionD</t>
+  </si>
+  <si>
+    <t>Paint skill</t>
+  </si>
+  <si>
+    <t>Lantern4</t>
   </si>
 </sst>
 </file>
@@ -232,13 +292,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,13 +323,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +357,11 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -308,31 +372,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Accent3" xfId="3" builtinId="37"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +697,7 @@
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,10 +708,10 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -663,13 +731,10 @@
         <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -682,20 +747,17 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="9">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3">
+      <c r="I3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -708,14 +770,14 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -728,14 +790,14 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -749,13 +811,13 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -768,164 +830,104 @@
       <c r="F7">
         <v>8</v>
       </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="I9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="5">
         <v>6</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
       </c>
-      <c r="I17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="5">
         <v>6</v>
       </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -933,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -948,10 +950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757CD9C9-764D-4017-A9B2-BE391BF235A8}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +964,7 @@
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -973,10 +975,10 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -996,13 +998,10 @@
         <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1015,20 +1014,17 @@
       <c r="F3" s="5">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1038,17 +1034,17 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
+      <c r="F4" s="9">
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1062,13 +1058,13 @@
         <v>4</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1081,16 +1077,16 @@
       <c r="F6">
         <v>8</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4"/>
       <c r="E7" t="s">
@@ -1099,137 +1095,75 @@
       <c r="F7">
         <v>8</v>
       </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
       <c r="I8" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J8" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="I11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
         <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1239,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB74AEEC-DBDD-4C89-9672-1D5855D722EA}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1187,7 @@
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1264,10 +1198,10 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1287,13 +1221,10 @@
         <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1306,20 +1237,17 @@
       <c r="F3" s="6">
         <v>4</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5">
         <v>18</v>
       </c>
-      <c r="N3" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1330,16 +1258,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1353,13 +1281,13 @@
         <v>4</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1372,16 +1300,16 @@
       <c r="F6">
         <v>8</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4"/>
       <c r="E7" t="s">
@@ -1390,28 +1318,34 @@
       <c r="F7">
         <v>8</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8">
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1419,148 +1353,52 @@
         <v>2</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="I11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="I12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
         <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1570,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D6BA52-D251-4C79-9178-9127F1D4E27D}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,269 +1427,612 @@
     <col min="13" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6">
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7">
-        <v>70</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Balance.xlsx
+++ b/Balance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SecretHistoriesBoardGame\secret-histories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA1862C-82BF-44E1-83A3-D1E250773913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02211DC3-1641-4D90-BABC-196B3B0A6AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lantern victory" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="79">
   <si>
     <t>Lore</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Influence</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Ascension</t>
@@ -379,13 +376,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -393,7 +387,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
@@ -708,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -747,10 +741,10 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="I3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7">
         <v>2</v>
       </c>
       <c r="M3">
@@ -758,22 +752,22 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="7">
         <v>2</v>
       </c>
     </row>
@@ -790,18 +784,18 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="I5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="E6" t="s">
@@ -810,11 +804,11 @@
       <c r="F6">
         <v>8</v>
       </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -830,6 +824,12 @@
       <c r="F7">
         <v>8</v>
       </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -839,17 +839,17 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -868,10 +868,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>4</v>
       </c>
     </row>
@@ -884,48 +884,48 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -952,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757CD9C9-764D-4017-A9B2-BE391BF235A8}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -975,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1011,11 +1011,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1034,11 +1034,11 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -1057,10 +1057,10 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1078,27 +1078,27 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1110,15 +1110,15 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1145,10 +1145,10 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB74AEEC-DBDD-4C89-9672-1D5855D722EA}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1234,16 +1234,16 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>18</v>
       </c>
     </row>
@@ -1257,13 +1257,13 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1280,10 +1280,10 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1300,18 +1300,18 @@
       <c r="F6">
         <v>8</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1333,15 +1333,15 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1352,10 +1352,10 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1363,23 +1363,23 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1408,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D6BA52-D251-4C79-9178-9127F1D4E27D}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1429,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1437,24 +1437,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1462,13 +1462,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1476,13 +1476,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1490,13 +1490,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1504,13 +1504,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,24 +1540,24 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>100</v>
@@ -1565,13 +1565,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="D15">
         <v>100</v>
@@ -1579,13 +1579,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -1593,13 +1593,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -1607,63 +1607,105 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
         <v>49</v>
       </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>37</v>
+      <c r="D25">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
         <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,52 +1713,52 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
+      <c r="C31" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -1724,13 +1766,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D32">
         <v>100</v>
@@ -1738,13 +1780,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D33">
         <v>100</v>
@@ -1752,13 +1794,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -1766,13 +1808,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D35">
         <v>100</v>
@@ -1780,13 +1822,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D36">
         <v>100</v>
@@ -1794,13 +1836,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D37">
         <v>100</v>
@@ -1808,13 +1850,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D38">
         <v>100</v>
@@ -1822,12 +1864,12 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D39">
@@ -1836,97 +1878,60 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D40">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43">
-        <v>100</v>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44">
-        <v>100</v>
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -1934,13 +1939,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D47">
         <v>100</v>
@@ -1948,13 +1953,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
       </c>
       <c r="D48">
         <v>100</v>
@@ -1962,13 +1967,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
       </c>
       <c r="D49">
         <v>100</v>
@@ -1976,62 +1981,57 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D50">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
         <v>25</v>
       </c>
-      <c r="D55">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
         <v>25</v>
       </c>
-      <c r="D56">
+      <c r="D52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="9">
         <v>100</v>
       </c>
     </row>

--- a/Balance.xlsx
+++ b/Balance.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SecretHistoriesBoardGame\secret-histories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02211DC3-1641-4D90-BABC-196B3B0A6AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0CC7BF-9097-4796-BED6-40BB96720ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lantern victory" sheetId="1" r:id="rId1"/>
     <sheet name="Forge victory" sheetId="2" r:id="rId2"/>
     <sheet name="Grail victory" sheetId="3" r:id="rId3"/>
     <sheet name="Ill Effects" sheetId="4" r:id="rId4"/>
+    <sheet name="Income" sheetId="5" r:id="rId5"/>
+    <sheet name="XHours" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="116">
   <si>
     <t>Lore</t>
   </si>
@@ -48,15 +59,9 @@
     <t>Ingredient</t>
   </si>
   <si>
-    <t>Spintria</t>
-  </si>
-  <si>
     <t>Cult robbery</t>
   </si>
   <si>
-    <t>2/8</t>
-  </si>
-  <si>
     <t>Masterpiece</t>
   </si>
   <si>
@@ -84,12 +89,6 @@
     <t>Subversion Knock</t>
   </si>
   <si>
-    <t>WhiteDoor</t>
-  </si>
-  <si>
-    <t>StagDoor</t>
-  </si>
-  <si>
     <t>Season of Ambition*</t>
   </si>
   <si>
@@ -141,9 +140,6 @@
     <t>Chance</t>
   </si>
   <si>
-    <t>Way:Wood</t>
-  </si>
-  <si>
     <t>Way dream</t>
   </si>
   <si>
@@ -159,15 +155,6 @@
     <t>PassionC</t>
   </si>
   <si>
-    <t>ReasonC</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>Passion</t>
-  </si>
-  <si>
     <t>Health</t>
   </si>
   <si>
@@ -265,6 +252,141 @@
   </si>
   <si>
     <t>Lantern4</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Glover</t>
+  </si>
+  <si>
+    <t>(Assuming 2 reasons)</t>
+  </si>
+  <si>
+    <t>Painting</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Moth</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Knock</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Iron Spintria</t>
+  </si>
+  <si>
+    <t>Bronze Spintria</t>
+  </si>
+  <si>
+    <t>Silver Spintria</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>Dream A</t>
+  </si>
+  <si>
+    <t>Dream 2xB</t>
+  </si>
+  <si>
+    <t>Intertwine BA</t>
+  </si>
+  <si>
+    <t>Auction Lantern Book</t>
+  </si>
+  <si>
+    <t>Bookshop Lantern book</t>
+  </si>
+  <si>
+    <t>Essays Auction</t>
+  </si>
+  <si>
+    <t>Bookshop Essays</t>
+  </si>
+  <si>
+    <t>Auction Forge Book</t>
+  </si>
+  <si>
+    <t>Bookshop Forge book</t>
+  </si>
+  <si>
+    <t>Auction Moth Book</t>
+  </si>
+  <si>
+    <t>Bookshop Moth book</t>
+  </si>
+  <si>
+    <t>Commision Edge A</t>
+  </si>
+  <si>
+    <t>Commision Edge B</t>
+  </si>
+  <si>
+    <t>Commision Forge A</t>
+  </si>
+  <si>
+    <t>Commision Forge B</t>
+  </si>
+  <si>
+    <t>Poetry Auction</t>
+  </si>
+  <si>
+    <t>Bookshop Poetry</t>
+  </si>
+  <si>
+    <t>Painting A</t>
+  </si>
+  <si>
+    <t>Painting B</t>
+  </si>
+  <si>
+    <t>Painting C</t>
+  </si>
+  <si>
+    <t>Labor A</t>
+  </si>
+  <si>
+    <t>Labor B</t>
+  </si>
+  <si>
+    <t>Labor C</t>
+  </si>
+  <si>
+    <t>Auction Grail Book</t>
+  </si>
+  <si>
+    <t>Bookshop Grail book</t>
+  </si>
+  <si>
+    <t>Triage Auction</t>
+  </si>
+  <si>
+    <t>Triage Essays</t>
+  </si>
+  <si>
+    <t>Dread failure</t>
   </si>
 </sst>
 </file>
@@ -376,7 +498,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -391,6 +513,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent3" xfId="3" builtinId="37"/>
@@ -678,13 +805,13 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
@@ -699,10 +826,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -736,16 +863,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="J3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>20</v>
@@ -759,16 +886,16 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>8</v>
+        <v>85</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="J4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -779,16 +906,16 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="J5" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -799,16 +926,16 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="7">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -819,16 +946,16 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -839,17 +966,35 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3"/>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -858,6 +1003,12 @@
       <c r="B10">
         <v>2</v>
       </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -866,6 +1017,12 @@
       <c r="B11">
         <v>2</v>
       </c>
+      <c r="I11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -874,6 +1031,12 @@
       <c r="B12" s="4">
         <v>4</v>
       </c>
+      <c r="I12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -882,6 +1045,12 @@
       <c r="B13">
         <v>4</v>
       </c>
+      <c r="I13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -890,12 +1059,24 @@
       <c r="B14" s="4">
         <v>6</v>
       </c>
+      <c r="I14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3"/>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -904,16 +1085,28 @@
       <c r="B16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -921,13 +1114,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -935,7 +1128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -950,17 +1143,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757CD9C9-764D-4017-A9B2-BE391BF235A8}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -972,10 +1165,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -997,6 +1190,9 @@
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1009,16 +1205,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
       </c>
       <c r="M3">
         <v>20</v>
@@ -1032,16 +1228,16 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1052,16 +1248,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1072,34 +1268,34 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3"/>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="5">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1110,16 +1306,16 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="5">
         <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1129,11 +1325,17 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1143,12 +1345,30 @@
       <c r="B10">
         <v>4</v>
       </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3"/>
+      <c r="I11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1157,6 +1377,12 @@
       <c r="B12">
         <v>2</v>
       </c>
+      <c r="I12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1164,6 +1390,78 @@
       </c>
       <c r="B13">
         <v>2</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
+        <f>3/4</f>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -1173,17 +1471,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB74AEEC-DBDD-4C89-9672-1D5855D722EA}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1195,10 +1493,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1232,16 +1530,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
       </c>
       <c r="M3" s="4">
         <v>18</v>
@@ -1255,16 +1553,16 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="5">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1275,16 +1573,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1295,34 +1593,34 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3"/>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1333,16 +1631,16 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="5">
         <v>6</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1352,11 +1650,17 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>6</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1366,23 +1670,23 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="4">
-        <v>6</v>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3"/>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1392,6 +1696,12 @@
       <c r="B12">
         <v>2</v>
       </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1399,6 +1709,117 @@
       </c>
       <c r="B13">
         <v>2</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1410,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D6BA52-D251-4C79-9178-9127F1D4E27D}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1850,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1437,24 +1858,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1462,13 +1883,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1476,13 +1897,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1490,13 +1911,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1504,13 +1925,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1518,13 +1939,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -1532,7 +1953,7 @@
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,24 +1961,24 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>100</v>
@@ -1565,13 +1986,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D15">
         <v>100</v>
@@ -1579,13 +2000,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -1593,13 +2014,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -1607,13 +2028,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -1621,7 +2042,7 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,24 +2050,24 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>30</v>
@@ -1654,13 +2075,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>30</v>
@@ -1668,13 +2089,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <v>30</v>
@@ -1682,13 +2103,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>50</v>
@@ -1696,27 +2117,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>100</v>
@@ -1724,13 +2145,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -1738,13 +2159,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>100</v>
@@ -1752,13 +2173,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -1766,13 +2187,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D32">
         <v>100</v>
@@ -1780,13 +2201,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D33">
         <v>100</v>
@@ -1794,105 +2215,21 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D34">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40">
-        <v>100</v>
-      </c>
-    </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1900,24 +2237,24 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D45">
         <v>30</v>
@@ -1925,13 +2262,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -1939,13 +2276,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D47">
         <v>100</v>
@@ -1953,13 +2290,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D48">
         <v>100</v>
@@ -1967,13 +2304,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <v>100</v>
@@ -1981,13 +2318,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>100</v>
@@ -1995,13 +2332,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D51">
         <v>100</v>
@@ -2009,13 +2346,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D52">
         <v>100</v>
@@ -2023,16 +2360,217 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D53" s="9">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B2FB8B-2270-46E5-B692-765518930324}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2">
+        <f>1+0.5*1</f>
+        <v>1.5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="10">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3">
+        <f>1+0.3*1</f>
+        <v>1.3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <f>2+0.5*1</f>
+        <v>2.5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="10">
+        <f>5/4</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <f>1+0.5*1</f>
+        <v>1.5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="10">
+        <f>7/4</f>
+        <v>1.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC6A2AB-03FA-4E19-9755-13B31472AD86}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>(B2/10)*100</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C8" si="0">(B3/10)*100</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Balance.xlsx
+++ b/Balance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SecretHistoriesBoardGame\secret-histories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0CC7BF-9097-4796-BED6-40BB96720ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B518EFFE-9E6B-4DD9-B601-AE5235D4F805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lantern victory" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="111">
   <si>
     <t>Lore</t>
   </si>
@@ -164,18 +164,6 @@
     <t>Mystique</t>
   </si>
   <si>
-    <t>Cult</t>
-  </si>
-  <si>
-    <t>Cult Forge</t>
-  </si>
-  <si>
-    <t>Cult Knock</t>
-  </si>
-  <si>
-    <t>Cult Lantern</t>
-  </si>
-  <si>
     <t>Commision Edge C</t>
   </si>
   <si>
@@ -240,9 +228,6 @@
   </si>
   <si>
     <t>Notoriety</t>
-  </si>
-  <si>
-    <t>Cult Winter</t>
   </si>
   <si>
     <t>PassionD</t>
@@ -804,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,13 +848,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
@@ -886,13 +871,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J4" s="7">
         <v>3</v>
@@ -906,13 +891,13 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J5" s="7">
         <v>4</v>
@@ -929,10 +914,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -952,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -972,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -987,10 +972,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1004,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -1018,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
@@ -1032,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
@@ -1046,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
@@ -1060,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J14" s="7">
         <v>1</v>
@@ -1072,7 +1057,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1086,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
@@ -1100,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J17" s="7">
         <v>3</v>
@@ -1146,7 +1131,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,13 +1190,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
@@ -1228,13 +1213,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="4">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J4" s="7">
         <v>3</v>
@@ -1248,13 +1233,13 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J5" s="7">
         <v>4</v>
@@ -1274,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1292,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1312,7 +1297,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1329,10 +1314,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1352,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -1364,7 +1349,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="I11" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
@@ -1378,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
@@ -1392,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
@@ -1400,7 +1385,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I14" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J14" s="7">
         <v>1</v>
@@ -1408,7 +1393,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1416,7 +1401,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I16" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J16" s="5">
         <v>3</v>
@@ -1424,7 +1409,7 @@
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J17" s="7">
         <v>3</v>
@@ -1432,7 +1417,7 @@
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I18" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J18" s="5">
         <v>1</v>
@@ -1443,7 +1428,7 @@
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I19" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -1454,7 +1439,7 @@
     </row>
     <row r="20" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I20" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J20" s="5">
         <v>1</v>
@@ -1474,7 +1459,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,13 +1515,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
@@ -1553,13 +1538,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J4" s="7">
         <v>3</v>
@@ -1573,13 +1558,13 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J5" s="7">
         <v>4</v>
@@ -1599,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1617,7 +1602,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1637,7 +1622,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -1654,10 +1639,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
@@ -1671,7 +1656,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -1683,7 +1668,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -1697,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -1711,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
@@ -1719,7 +1704,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J14" s="7">
         <v>1</v>
@@ -1727,7 +1712,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I15" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J15" s="7">
         <v>1</v>
@@ -1735,7 +1720,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I16" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J16" s="7">
         <v>1</v>
@@ -1743,7 +1728,7 @@
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1751,7 +1736,7 @@
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I18" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
@@ -1759,7 +1744,7 @@
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I19" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J19" s="4">
         <v>1</v>
@@ -1767,7 +1752,7 @@
     </row>
     <row r="20" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I20" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J20" s="5">
         <v>3</v>
@@ -1775,7 +1760,7 @@
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I21" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J21" s="7">
         <v>3</v>
@@ -1783,7 +1768,7 @@
     </row>
     <row r="22" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I22" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J22" s="4">
         <v>3</v>
@@ -1791,7 +1776,7 @@
     </row>
     <row r="23" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I23" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J23" s="5">
         <v>1</v>
@@ -1802,7 +1787,7 @@
     </row>
     <row r="24" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I24" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J24" s="5">
         <v>1</v>
@@ -1813,7 +1798,7 @@
     </row>
     <row r="25" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I25" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J25" s="5">
         <v>1.5</v>
@@ -1829,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D6BA52-D251-4C79-9178-9127F1D4E27D}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,7 +1910,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -2028,7 +2013,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -2061,83 +2046,83 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>100</v>
@@ -2145,13 +2130,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -2159,13 +2144,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>100</v>
@@ -2173,202 +2158,146 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D31">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>58</v>
       </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="D32">
+      <c r="D42">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="B43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="9">
+      <c r="D43" s="9">
         <v>100</v>
       </c>
     </row>
@@ -2382,7 +2311,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,74 +2321,74 @@
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <f>1+0.5*1</f>
         <v>1.5</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J2" s="10">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
+        <f>0.7*1</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <f>1+0.3*1</f>
         <v>1.3</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <f>2+0.5*1</f>
-        <v>2.5</v>
+        <f>2+0.4*1</f>
+        <v>2.4</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J3" s="10">
-        <f>5/4</f>
-        <v>1.25</v>
+        <f>1+0.2*1</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <f>1+0.5*1</f>
         <v>1.5</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J4" s="10">
-        <f>7/4</f>
-        <v>1.75</v>
+        <f>1+0.2*1+0.7*1</f>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -2480,10 +2409,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>32</v>
@@ -2491,7 +2420,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -2515,7 +2444,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2527,7 +2456,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -2539,7 +2468,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2563,7 +2492,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>1</v>
